--- a/analyst.xlsx
+++ b/analyst.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="414">
   <si>
     <t>Job Title</t>
   </si>
@@ -40,6 +40,36 @@
     <t>Benefits</t>
   </si>
   <si>
+    <t>Data Analyst Engineer</t>
+  </si>
+  <si>
+    <t>Senior Analytics Engineer</t>
+  </si>
+  <si>
+    <t>Data Analyst - Internship (H/F)</t>
+  </si>
+  <si>
+    <t>Product Data Analyst - Consumer</t>
+  </si>
+  <si>
+    <t>Sector Data Analyst</t>
+  </si>
+  <si>
+    <t>Analytics Engineer</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Data Analyst Growth</t>
+  </si>
+  <si>
+    <t>Junior Data Analyst</t>
+  </si>
+  <si>
+    <t>Staff Data Engineer - Analytic Platform</t>
+  </si>
+  <si>
     <t>Senior Data Engineer - Analytic Platform</t>
   </si>
   <si>
@@ -55,12 +85,6 @@
     <t>(Senior) Digital Analytics Engineer</t>
   </si>
   <si>
-    <t>Junior Data Analyst</t>
-  </si>
-  <si>
-    <t>Data Analyst</t>
-  </si>
-  <si>
     <t>Senior Security Analytics Engineer</t>
   </si>
   <si>
@@ -259,36 +283,42 @@
     <t>Data Analyst, Federal Civilian (remote)</t>
   </si>
   <si>
-    <t>Global Data Analyst - People HR - Night Shifts - Contract</t>
-  </si>
-  <si>
-    <t>Data Analyst | Global Analytics Team</t>
-  </si>
-  <si>
-    <t>Data Analyst - Data Governance Specialist (Remote in EU or onsite)</t>
-  </si>
-  <si>
-    <t>Data Analyst -  Compliance</t>
-  </si>
-  <si>
-    <t>Data Analytics Coach</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist, Machine Learning - Game Analytics</t>
+    <t>Netcentric</t>
+  </si>
+  <si>
+    <t>Teachers Pay Teachers</t>
+  </si>
+  <si>
+    <t>Believe</t>
+  </si>
+  <si>
+    <t>Addi</t>
+  </si>
+  <si>
+    <t>Schonfeld</t>
+  </si>
+  <si>
+    <t>Verisk</t>
+  </si>
+  <si>
+    <t>JobTeaser</t>
+  </si>
+  <si>
+    <t>Pythian</t>
   </si>
   <si>
     <t>StubHub</t>
   </si>
   <si>
+    <t>Trustly</t>
+  </si>
+  <si>
     <t>Uncapped</t>
   </si>
   <si>
     <t>Publicis Groupe</t>
   </si>
   <si>
-    <t>Netcentric</t>
-  </si>
-  <si>
     <t>Metiora</t>
   </si>
   <si>
@@ -412,9 +442,6 @@
     <t>Ubisoft</t>
   </si>
   <si>
-    <t>Verisk</t>
-  </si>
-  <si>
     <t>Bosch Group</t>
   </si>
   <si>
@@ -478,42 +505,36 @@
     <t>Ad Hoc</t>
   </si>
   <si>
-    <t>Guidewire Software</t>
-  </si>
-  <si>
-    <t>Gympass</t>
-  </si>
-  <si>
-    <t>SumUp</t>
-  </si>
-  <si>
-    <t>Capco</t>
-  </si>
-  <si>
-    <t>Collectors</t>
-  </si>
-  <si>
-    <t>FREE NOW</t>
-  </si>
-  <si>
-    <t>PhonePe</t>
-  </si>
-  <si>
-    <t>Multiverse</t>
-  </si>
-  <si>
-    <t>Rockstar Games</t>
-  </si>
-  <si>
-    <t>Darrow</t>
-  </si>
-  <si>
-    <t>DigitalOcean</t>
+    <t>Barcelona, Spain</t>
+  </si>
+  <si>
+    <t>New York City, NY, United States</t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Buenos Aires, Argentina - Remote</t>
+  </si>
+  <si>
+    <t>New York City, United States</t>
+  </si>
+  <si>
+    <t>Pune, India</t>
+  </si>
+  <si>
+    <t>Kraków, Poland</t>
+  </si>
+  <si>
+    <t>Ottawa, Ontario</t>
   </si>
   <si>
     <t>Irvine, CA</t>
   </si>
   <si>
+    <t>Stockholm, Sweden</t>
+  </si>
+  <si>
     <t>Warsaw, Masovian Voivodeship, Poland - Remote</t>
   </si>
   <si>
@@ -622,12 +643,6 @@
     <t>Vadodara, India</t>
   </si>
   <si>
-    <t>Barcelona, Spain</t>
-  </si>
-  <si>
-    <t>New York City, United States</t>
-  </si>
-  <si>
     <t>Carol Stream, IL, United States</t>
   </si>
   <si>
@@ -679,9 +694,6 @@
     <t>Trumpington, United Kingdom</t>
   </si>
   <si>
-    <t>Paris, France</t>
-  </si>
-  <si>
     <t>San Francisco, CA, United States</t>
   </si>
   <si>
@@ -733,66 +745,39 @@
     <t>Washington, DC</t>
   </si>
   <si>
-    <t>India - Bengaluru</t>
-  </si>
-  <si>
-    <t>New York, US (remote)</t>
-  </si>
-  <si>
-    <t>US Remote</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>London, England, United Kingdom - Remote</t>
-  </si>
-  <si>
-    <t>Manhattan, New York, United States</t>
-  </si>
-  <si>
-    <t>Tel Aviv</t>
-  </si>
-  <si>
-    <t>United States and Canada</t>
-  </si>
-  <si>
     <t>Senior-level</t>
   </si>
   <si>
+    <t>Entry-level</t>
+  </si>
+  <si>
     <t>Mid-level</t>
   </si>
   <si>
-    <t>Entry-level</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>Executive-level</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Full Time</t>
   </si>
   <si>
     <t>Internship</t>
   </si>
   <si>
+    <t>USD 46K - 85K *</t>
+  </si>
+  <si>
+    <t>USD 30K - 80K *</t>
+  </si>
+  <si>
+    <t>USD 51K - 90K *</t>
+  </si>
+  <si>
     <t>USD 76K - 150K *</t>
   </si>
   <si>
-    <t>USD 51K - 90K *</t>
-  </si>
-  <si>
-    <t>USD 30K - 80K *</t>
-  </si>
-  <si>
-    <t>USD 46K - 85K *</t>
-  </si>
-  <si>
     <t>USD 115K - 144K</t>
   </si>
   <si>
@@ -811,10 +796,37 @@
     <t>USD 81K - 115K</t>
   </si>
   <si>
-    <t>USD 68K - 135K *</t>
-  </si>
-  <si>
-    <t>['Airflow', 'Data pipelines', 'Data Warehousing', 'Engineering', 'Kafka', 'Machine Learning', 'Pipelines', '+5']</t>
+    <t>['Big Data', 'Data management', 'GCP', 'Google Cloud', 'Looker', 'Python']</t>
+  </si>
+  <si>
+    <t>['Airflow', 'Business Intelligence', 'Engineering', 'Finance', 'Looker', 'Python', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Power BI']</t>
+  </si>
+  <si>
+    <t>['A/B testing', 'Data visualization', 'Engineering', 'FinTech', 'KPIs', 'Power BI', 'Python', '+4']</t>
+  </si>
+  <si>
+    <t>['Agile', 'Computer Science', 'Data analysis', 'Data pipelines', 'Engineering', 'Linux', 'Mathematics', '+5']</t>
+  </si>
+  <si>
+    <t>['A/B testing', 'Agile', 'APIs', 'Engineering', 'JavaScript', 'Node.js', 'React', '+1']</t>
+  </si>
+  <si>
+    <t>['Business Intelligence', 'Data Analytics', 'Data management', 'ETL', 'Pipelines', 'Power BI', 'Python', '+2']</t>
+  </si>
+  <si>
+    <t>['A/B testing', 'Business Intelligence', 'Data Analytics', 'Economics', 'Research', 'SQL', 'Tableau', '+1']</t>
+  </si>
+  <si>
+    <t>['BigQuery', 'Data analysis', 'Engineering', 'ETL', 'GCP', 'Google Cloud', 'RDBMS', '+1']</t>
+  </si>
+  <si>
+    <t>['Airflow', 'Data pipelines', 'Data Warehousing', 'Engineering', 'Kafka', 'Machine Learning', 'Pipelines', '+6']</t>
+  </si>
+  <si>
+    <t>['Airflow', 'Banking', 'BigQuery', 'Business Intelligence', 'Dataflow', 'Data pipelines', 'Data visualization', '+8']</t>
   </si>
   <si>
     <t>['Credit risk', 'Finance', 'Machine Learning', 'ML models', 'Python', 'R', 'SQL', '+1']</t>
@@ -832,9 +844,6 @@
     <t>['Consulting', 'Data Analytics', 'Django', 'MongoDB', 'Power BI', 'Python', 'Qlik', '+2']</t>
   </si>
   <si>
-    <t>['Big Data', 'Data management', 'GCP', 'Google Cloud', 'Looker', 'Python']</t>
-  </si>
-  <si>
     <t>['A/B testing', 'AWS', 'Engineering', 'NoSQL', 'Security', 'SQL', 'Streaming', '+1']</t>
   </si>
   <si>
@@ -946,7 +955,7 @@
     <t>['Data analysis', 'E-commerce', 'KPIs', '.NET', 'Python', 'R', 'Research', '+2']</t>
   </si>
   <si>
-    <t>['Business Intelligence', 'Data Analytics', 'Data strategy', 'Excel', 'Oracle', 'Research', 'SQL', '+1']</t>
+    <t>['Business Intelligence', 'Data Analytics', 'Data strategy', 'Excel', 'Oracle', 'RDBMS', 'Research', '+2']</t>
   </si>
   <si>
     <t>['Computer Science', 'Data analysis', 'Data management', 'Data visualization', 'Excel', 'Machine Learning', 'Mathematics', '+2']</t>
@@ -991,7 +1000,7 @@
     <t>['Data Analytics', 'Mathematics', 'Power BI', 'Qlik', 'SQL', 'Statistics', 'Tableau']</t>
   </si>
   <si>
-    <t>['Banking', 'Consulting', 'Data analysis', 'Data management', 'Finance', 'MS SQL', 'PhD', '+2']</t>
+    <t>['Banking', 'Consulting', 'Data analysis', 'Data management', 'Finance', 'MS SQL', 'PhD', '+3']</t>
   </si>
   <si>
     <t>['Agile', 'Data analysis', 'Excel', 'Finance', 'Python', 'R', 'Security', '+3']</t>
@@ -1036,7 +1045,7 @@
     <t>['Computer Science', 'Data analysis', 'Data Analytics', 'Engineering', 'Oracle', 'PhD', 'Power BI', '+4']</t>
   </si>
   <si>
-    <t>['Computer Science', 'Economics', 'Engineering', 'Python', 'R', 'SAS', 'SQL', '+2']</t>
+    <t>['Computer Science', 'Economics', 'Engineering', 'Python', 'R', 'RDBMS', 'SAS', '+3']</t>
   </si>
   <si>
     <t>['Big Data', 'Industrial', 'Power BI', 'Python', 'SQL']</t>
@@ -1078,37 +1087,31 @@
     <t>['Data analysis', 'Python', 'R', 'Security', 'SQL', 'UX']</t>
   </si>
   <si>
-    <t>['Data analysis', 'Data Analytics', 'Data management', 'Data visualization', 'Excel', 'Power BI', 'R', '+5']</t>
-  </si>
-  <si>
-    <t>['Airflow', 'SQL']</t>
-  </si>
-  <si>
-    <t>['Airflow', 'AWS', 'Data pipelines', 'FinTech', 'FiveTran', 'KPIs', 'Metabase', '+5']</t>
-  </si>
-  <si>
-    <t>['Agile', 'Banking', 'Big Data', 'Data analysis', 'Data Analytics', 'ETL', 'Finance', '+4']</t>
-  </si>
-  <si>
-    <t>['Data Warehousing', 'Engineering', 'Security', 'SQL', 'Testing']</t>
-  </si>
-  <si>
-    <t>['Computer Science', 'Data management', 'Engineering', 'ETL', 'Python', 'Research', 'SQL']</t>
-  </si>
-  <si>
-    <t>['Banking', 'Data Analytics', 'Data visualization', 'Excel', 'FinTech', 'SQL', 'Testing']</t>
-  </si>
-  <si>
-    <t>['Data Analytics', 'Excel', 'PhD', 'Power BI', 'Python', 'SQL']</t>
-  </si>
-  <si>
-    <t>['Big Data', 'Classification', 'Computer Science', 'Data Mining', 'Data pipelines', 'Hadoop', 'Machine Learning', '+8']</t>
-  </si>
-  <si>
-    <t>['Business Intelligence', 'Data analysis', 'Data management', 'Machine Learning', 'SQL', 'Statistics']</t>
-  </si>
-  <si>
-    <t>['Computer Science', 'Economics', 'Engineering', 'Excel', 'Finance', 'KPIs', 'Looker', '+4']</t>
+    <t>['Fitness / gym', 'Flex hours', 'Flex vacation', 'Health care', 'Salary bonus', '+1']</t>
+  </si>
+  <si>
+    <t>['Career development', 'Health care', 'Medical leave', 'Parental leave', 'Startup environment', '+2']</t>
+  </si>
+  <si>
+    <t>['Career development']</t>
+  </si>
+  <si>
+    <t>['Equity', 'Health care', 'Startup environment']</t>
+  </si>
+  <si>
+    <t>['Career development', 'Equity', 'Startup environment']</t>
+  </si>
+  <si>
+    <t>['Career development', 'Flex vacation', 'Health care', 'Medical leave', 'Salary bonus']</t>
+  </si>
+  <si>
+    <t>['Career development', 'Equity', 'Insurance']</t>
+  </si>
+  <si>
+    <t>['Yoga']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>['Career development', 'Health care', 'Lunch / meals', 'Startup environment', 'Team events', '+1']</t>
@@ -1117,18 +1120,12 @@
     <t>['Career development', 'Competitive pay', 'Equity', 'Flex hours', 'Flex vacation', '+4']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['Career development', 'Flex hours', 'Team events']</t>
   </si>
   <si>
     <t>['Career development', 'Fitness / gym', 'Flex hours', 'Flex vacation', 'Salary bonus', '+2']</t>
   </si>
   <si>
-    <t>['Fitness / gym', 'Flex hours', 'Flex vacation', 'Health care', 'Salary bonus', '+1']</t>
-  </si>
-  <si>
     <t>['Career development', 'Startup environment']</t>
   </si>
   <si>
@@ -1186,9 +1183,6 @@
     <t>['Career development', 'Competitive pay', 'Fitness / gym', 'Flex hours', 'Health care', '+2']</t>
   </si>
   <si>
-    <t>['Career development']</t>
-  </si>
-  <si>
     <t>['Flex hours', 'Flex vacation', 'Pet friendly', 'Startup environment']</t>
   </si>
   <si>
@@ -1262,30 +1256,6 @@
   </si>
   <si>
     <t>['401(k) matching', 'Career development', 'Health care', 'Insurance', 'Unlimited paid time off']</t>
-  </si>
-  <si>
-    <t>['Career development', 'Fitness / gym', 'Flex hours', 'Flex vacation', 'Health care', '+6']</t>
-  </si>
-  <si>
-    <t>['Flex vacation', 'Startup environment', 'Team events']</t>
-  </si>
-  <si>
-    <t>['Career development', 'Flat hierarchy']</t>
-  </si>
-  <si>
-    <t>['401(k) matching', 'Competitive pay', 'Flex hours', 'Flex vacation', 'Health care', '+2']</t>
-  </si>
-  <si>
-    <t>['Career development', 'Equity', 'Fitness / gym', 'Flex hours', 'Home office stipend', '+4']</t>
-  </si>
-  <si>
-    <t>['Career development', 'Flex hours', 'Medical leave', 'Parental leave', 'Relocation support', '+3']</t>
-  </si>
-  <si>
-    <t>['Career development', 'Equity', 'Health care', 'Insurance', 'Startup environment', '+1']</t>
-  </si>
-  <si>
-    <t>['Competitive pay', 'Conferences', 'Equity', 'Health care', 'Insurance', '+4']</t>
   </si>
 </sst>
 </file>
@@ -1680,25 +1650,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1706,25 +1676,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1732,25 +1702,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1758,25 +1728,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1784,25 +1754,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H6" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1810,25 +1780,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1836,25 +1806,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H8" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1862,25 +1832,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H9" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1888,25 +1858,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H10" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1914,311 +1884,311 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" t="s">
         <v>253</v>
       </c>
-      <c r="F11" t="s">
-        <v>256</v>
-      </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" t="s">
         <v>253</v>
       </c>
-      <c r="F13" t="s">
-        <v>256</v>
-      </c>
       <c r="G13" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H13" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H14" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H15" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G16" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H16" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H17" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H18" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G19" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="H19" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G20" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H21" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G22" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H22" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2229,22 +2199,22 @@
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H23" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2255,22 +2225,22 @@
         <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" t="s">
         <v>252</v>
       </c>
-      <c r="E24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" t="s">
-        <v>258</v>
-      </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2281,74 +2251,74 @@
         <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H25" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" t="s">
         <v>253</v>
       </c>
-      <c r="F26" t="s">
-        <v>256</v>
-      </c>
       <c r="G26" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H26" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H27" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2362,253 +2332,253 @@
         <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H28" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H29" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E31" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H31" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H32" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H33" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H34" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E35" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H35" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H36" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H37" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2619,126 +2589,126 @@
         <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G38" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H38" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
         <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G39" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H39" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
+        <v>245</v>
+      </c>
+      <c r="E40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" t="s">
         <v>252</v>
       </c>
-      <c r="E40" t="s">
-        <v>253</v>
-      </c>
-      <c r="F40" t="s">
-        <v>258</v>
-      </c>
       <c r="G40" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H40" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="H41" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H42" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2749,126 +2719,126 @@
         <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" t="s">
         <v>252</v>
       </c>
-      <c r="E43" t="s">
-        <v>253</v>
-      </c>
-      <c r="F43" t="s">
-        <v>258</v>
-      </c>
       <c r="G43" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H43" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G44" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H44" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G45" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H45" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G46" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H46" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F47" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H47" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2876,25 +2846,25 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G48" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H48" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2902,25 +2872,25 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G49" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H49" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2928,25 +2898,25 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F50" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G50" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H50" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2954,25 +2924,25 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
         <v>250</v>
       </c>
-      <c r="E51" t="s">
-        <v>253</v>
-      </c>
-      <c r="F51" t="s">
-        <v>257</v>
-      </c>
       <c r="G51" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H51" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2980,129 +2950,129 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F52" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G52" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H52" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H53" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G54" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H54" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D55" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H55" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" t="s">
+        <v>248</v>
+      </c>
+      <c r="F56" t="s">
         <v>251</v>
       </c>
-      <c r="E56" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" t="s">
-        <v>252</v>
-      </c>
       <c r="G56" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H56" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3110,1140 +3080,1140 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G57" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H57" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E58" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G58" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H58" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F59" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G59" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H59" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F60" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G60" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H60" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F61" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H61" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F62" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G62" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H62" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E63" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H63" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F64" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G64" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H64" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E65" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H65" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E66" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G66" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H66" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E67" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F67" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G67" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H67" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F68" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G68" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H68" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F69" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H69" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F70" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G70" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F71" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G71" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H71" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E72" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G72" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H72" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G73" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H73" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G74" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H74" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E75" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F75" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G75" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H75" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F76" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G76" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H76" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F77" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H77" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F78" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G78" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H78" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F79" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H79" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G80" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H80" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D81" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F81" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G81" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H81" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G82" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H82" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F83" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G83" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H83" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E84" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F84" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G84" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H84" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E85" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F85" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G85" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H85" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D86" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E86" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F86" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G86" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H86" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E87" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G87" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H87" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E88" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F88" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G88" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H88" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E89" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F89" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G89" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H89" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E90" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F90" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G90" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H90" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F91" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G91" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H91" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E92" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F92" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G92" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H92" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F93" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G93" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H93" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="D94" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E94" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F94" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G94" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H94" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E95" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F95" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G95" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H95" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E96" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F96" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G96" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H96" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E97" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F97" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G97" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H97" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" t="s">
         <v>244</v>
       </c>
-      <c r="D98" t="s">
-        <v>249</v>
-      </c>
       <c r="E98" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G98" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H98" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D99" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F99" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G99" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H99" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="D100" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F100" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G100" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H100" t="s">
         <v>371</v>
@@ -4251,28 +4221,28 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C101" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D101" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G101" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H101" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
